--- a/sharkpay部署手册.xlsx
+++ b/sharkpay部署手册.xlsx
@@ -69,6 +69,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>输入http://</t>
     </r>
     <r>
@@ -1160,15 +1167,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>366395</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,7 +1192,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6968490"/>
+          <a:off x="635" y="6953250"/>
           <a:ext cx="14531340" cy="6797040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1664,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E235" sqref="E235"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/sharkpay部署手册.xlsx
+++ b/sharkpay部署手册.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="添加站点" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>11。安装minio</t>
   </si>
@@ -99,6 +101,9 @@
       </rPr>
       <t>:9999  可以打开minio首页</t>
     </r>
+  </si>
+  <si>
+    <t>1.点击【添加站点】</t>
   </si>
 </sst>
 </file>
@@ -1419,6 +1424,100 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="14599920" cy="5196840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7383780" cy="3947160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1671,8 +1770,8 @@
   <sheetPr/>
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1809,4 +1908,44 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/sharkpay部署手册.xlsx
+++ b/sharkpay部署手册.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="添加站点" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1518,6 +1519,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12192000" cy="1539240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="6515100" cy="5875020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1770,7 +1860,7 @@
   <sheetPr/>
   <dimension ref="A2:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
+    <sheetView topLeftCell="A180" workbookViewId="0">
       <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
@@ -1938,7 +2028,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1948,4 +2038,21 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>